--- a/mods/Class Gear Innates/Class_Innates_List.xlsx
+++ b/mods/Class Gear Innates/Class_Innates_List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Class</t>
   </si>
@@ -24,6 +24,9 @@
     <t>Inate</t>
   </si>
   <si>
+    <t xml:space="preserve">Gear Skill</t>
+  </si>
+  <si>
     <t>Warrior</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     </r>
   </si>
   <si>
+    <t>Fighter</t>
+  </si>
+  <si>
     <t>Monk</t>
   </si>
   <si>
@@ -74,6 +80,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Counter (All Damage)</t>
+  </si>
+  <si>
     <t>Rogue</t>
   </si>
   <si>
@@ -99,6 +108,9 @@
     </r>
   </si>
   <si>
+    <t>Pintpoint</t>
+  </si>
+  <si>
     <t>Cleric</t>
   </si>
   <si>
@@ -124,6 +136,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Pinch Healer</t>
+  </si>
+  <si>
     <t>Wizard</t>
   </si>
   <si>
@@ -149,6 +164,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Element Specialist</t>
+  </si>
+  <si>
     <t>Warlock</t>
   </si>
   <si>
@@ -174,6 +192,9 @@
     </r>
   </si>
   <si>
+    <t>Refresher</t>
+  </si>
+  <si>
     <t>Fencer</t>
   </si>
   <si>
@@ -199,6 +220,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Already has Duel Ready 2x</t>
+  </si>
+  <si>
     <t>Shaman</t>
   </si>
   <si>
@@ -224,6 +248,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Already has Spell Steal</t>
+  </si>
+  <si>
     <t>Scholar</t>
   </si>
   <si>
@@ -249,6 +276,9 @@
     </r>
   </si>
   <si>
+    <t>Studious</t>
+  </si>
+  <si>
     <t>Aegis</t>
   </si>
   <si>
@@ -274,6 +304,9 @@
     </r>
   </si>
   <si>
+    <t>Stalwart</t>
+  </si>
+  <si>
     <t>Hunter</t>
   </si>
   <si>
@@ -299,6 +332,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Already has Camouflage</t>
+  </si>
+  <si>
     <t>Chemist</t>
   </si>
   <si>
@@ -324,6 +360,9 @@
     </r>
   </si>
   <si>
+    <t>Efficience</t>
+  </si>
+  <si>
     <t>Reaper</t>
   </si>
   <si>
@@ -349,6 +388,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Blood Spiller</t>
+  </si>
+  <si>
     <t>Ninja</t>
   </si>
   <si>
@@ -374,6 +416,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Perfect Dodge</t>
+  </si>
+  <si>
     <t>Nomad</t>
   </si>
   <si>
@@ -399,6 +444,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">AP Focus</t>
+  </si>
+  <si>
     <t>Dervish</t>
   </si>
   <si>
@@ -424,6 +472,9 @@
     </r>
   </si>
   <si>
+    <t>Aura</t>
+  </si>
+  <si>
     <t>Beatsmith</t>
   </si>
   <si>
@@ -449,6 +500,9 @@
     </r>
   </si>
   <si>
+    <t>Rythm</t>
+  </si>
+  <si>
     <t>Samurai</t>
   </si>
   <si>
@@ -474,6 +528,9 @@
     </r>
   </si>
   <si>
+    <t>Unreactable</t>
+  </si>
+  <si>
     <t>Assassin</t>
   </si>
   <si>
@@ -499,6 +556,9 @@
     </r>
   </si>
   <si>
+    <t>Assassination</t>
+  </si>
+  <si>
     <t>Valkyrie</t>
   </si>
   <si>
@@ -524,6 +584,9 @@
     </r>
   </si>
   <si>
+    <t>Immortal</t>
+  </si>
+  <si>
     <t>Summoner</t>
   </si>
   <si>
@@ -549,6 +612,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">MP Boost</t>
+  </si>
+  <si>
     <t>Beastmaster</t>
   </si>
   <si>
@@ -574,6 +640,9 @@
     </r>
   </si>
   <si>
+    <t>Savage</t>
+  </si>
+  <si>
     <t>Weaver</t>
   </si>
   <si>
@@ -599,6 +668,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Chrono Loop</t>
+  </si>
+  <si>
     <t>Mimic</t>
   </si>
   <si>
@@ -622,6 +694,9 @@
       <t xml:space="preserve">
 Gain innate passive(s) of sub-command class</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">All stats +50</t>
   </si>
 </sst>
 </file>
@@ -663,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -676,9 +751,6 @@
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,7 +1270,7 @@
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="11.421875"/>
     <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="53.28125"/>
-    <col min="3" max="3" style="1" width="9.140625"/>
+    <col customWidth="1" min="3" max="3" style="1" width="34.8515625"/>
     <col min="4" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
@@ -1209,197 +1281,272 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" ht="28.5">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="28.5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="28.5">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="28.5">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="28.5">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="28.5">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>13</v>
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="28.5">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>15</v>
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="28.5">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="28.5">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="28.5">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="28.5">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>23</v>
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="28.5">
-      <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>25</v>
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="28.5">
-      <c r="A14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>27</v>
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="28.5">
-      <c r="A15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>29</v>
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" ht="28.5">
-      <c r="A16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>31</v>
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="28.5">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>33</v>
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="28.5">
-      <c r="A18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>35</v>
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" ht="28.5">
-      <c r="A19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>37</v>
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" ht="28.5">
-      <c r="A20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>39</v>
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" ht="28.5">
-      <c r="A21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>41</v>
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" ht="28.5">
-      <c r="A22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>43</v>
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" ht="28.5">
-      <c r="A23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>45</v>
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" ht="28.5">
-      <c r="A24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>47</v>
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" ht="28.5">
-      <c r="A25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>49</v>
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
